--- a/Bio Catalyst Date.xlsx
+++ b/Bio Catalyst Date.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Finance Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed04691dbd909eac/Desktop/Model/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F43E56-74C9-46AF-8F6A-A675B1DC7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{76F43E56-74C9-46AF-8F6A-A675B1DC7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5835CBF-3685-4D94-B049-1ECA6C675946}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>AVXL</t>
   </si>
@@ -124,6 +135,18 @@
   </si>
   <si>
     <t>Failed to meet primary endpoint</t>
+  </si>
+  <si>
+    <t>INMB</t>
+  </si>
+  <si>
+    <t>soluble TNF</t>
+  </si>
+  <si>
+    <t>NCT05318976</t>
+  </si>
+  <si>
+    <t>Xpro1595</t>
   </si>
 </sst>
 </file>
@@ -471,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N4"/>
+  <dimension ref="B1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,6 +634,32 @@
         <v>31</v>
       </c>
     </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45809</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Bio Catalyst Date.xlsx
+++ b/Bio Catalyst Date.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed04691dbd909eac/Desktop/Model/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{76F43E56-74C9-46AF-8F6A-A675B1DC7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5835CBF-3685-4D94-B049-1ECA6C675946}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{76F43E56-74C9-46AF-8F6A-A675B1DC7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD8A5E87-F719-4F8C-B3D7-438AB2021F02}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Catalyst 2025" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Catalyst 2025'!$B$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>AVXL</t>
   </si>
@@ -140,20 +140,65 @@
     <t>INMB</t>
   </si>
   <si>
-    <t>soluble TNF</t>
-  </si>
-  <si>
     <t>NCT05318976</t>
   </si>
   <si>
     <t>Xpro1595</t>
+  </si>
+  <si>
+    <t>Rejected by FDA</t>
+  </si>
+  <si>
+    <t>ATYR</t>
+  </si>
+  <si>
+    <t>Efzofitimod</t>
+  </si>
+  <si>
+    <t>NCT05415137</t>
+  </si>
+  <si>
+    <t>Sarcoidosis</t>
+  </si>
+  <si>
+    <t>3Q 2025</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Undecided</t>
+  </si>
+  <si>
+    <t>Soluble TNF</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>FDA asked for more data</t>
+  </si>
+  <si>
+    <t>NRP2 Downregulator</t>
+  </si>
+  <si>
+    <t>Impact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +216,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -213,13 +265,30 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF990033"/>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -229,6 +298,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N5"/>
+  <dimension ref="B1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,10 +584,12 @@
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="31.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -542,12 +617,22 @@
       <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -575,8 +660,12 @@
       <c r="J2" s="3">
         <v>45992</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>14</v>
       </c>
@@ -604,8 +693,20 @@
       <c r="J3" s="3">
         <v>45901</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="7">
+        <v>-0.32979999999999998</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -630,22 +731,28 @@
       <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M4" s="8">
+        <v>-0.52729999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -659,9 +766,66 @@
       <c r="J5" s="3">
         <v>45809</v>
       </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="8">
+        <v>-0.56659999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="6"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M13" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bio Catalyst Date.xlsx
+++ b/Bio Catalyst Date.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed04691dbd909eac/Desktop/Model/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{76F43E56-74C9-46AF-8F6A-A675B1DC7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD8A5E87-F719-4F8C-B3D7-438AB2021F02}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{76F43E56-74C9-46AF-8F6A-A675B1DC7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57ACA416-FA49-4766-BC52-0AF3D563F691}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>AVXL</t>
   </si>
@@ -161,9 +161,6 @@
     <t>Sarcoidosis</t>
   </si>
   <si>
-    <t>3Q 2025</t>
-  </si>
-  <si>
     <t>Results</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Reject</t>
   </si>
   <si>
-    <t>Undecided</t>
-  </si>
-  <si>
     <t>Soluble TNF</t>
   </si>
   <si>
@@ -192,6 +186,9 @@
   </si>
   <si>
     <t>Impact</t>
+  </si>
+  <si>
+    <t>Mid september 2025</t>
   </si>
 </sst>
 </file>
@@ -254,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -265,23 +262,14 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -298,10 +286,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P13"/>
+  <dimension ref="B1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,16 +602,16 @@
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O1" s="2"/>
       <c r="P1" s="1"/>
@@ -661,9 +645,8 @@
         <v>45992</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" s="6"/>
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -694,16 +677,16 @@
         <v>45901</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="6">
         <v>-0.32979999999999998</v>
       </c>
       <c r="N3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
@@ -732,12 +715,12 @@
         <v>29</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>-0.52729999999999999</v>
       </c>
     </row>
@@ -752,7 +735,7 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -767,12 +750,12 @@
         <v>45809</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>-0.56659999999999999</v>
       </c>
     </row>
@@ -787,7 +770,7 @@
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>39</v>
@@ -796,33 +779,11 @@
         <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M13" s="6"/>
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/Bio Catalyst Date.xlsx
+++ b/Bio Catalyst Date.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed04691dbd909eac/Desktop/Model/Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{76F43E56-74C9-46AF-8F6A-A675B1DC7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57ACA416-FA49-4766-BC52-0AF3D563F691}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{76F43E56-74C9-46AF-8F6A-A675B1DC7AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9453D5-C9FB-4F9C-9C8A-574889B423F2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>AVXL</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Mid september 2025</t>
+  </si>
+  <si>
+    <t>result annouced 15/09/25 premarket</t>
   </si>
 </sst>
 </file>
@@ -784,6 +787,15 @@
       <c r="K6" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="L6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="7">
+        <v>-0.83169999999999999</v>
+      </c>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
